--- a/pred_ohlcv/54_21/2019-10-28 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 DAC ohlcv.xlsx
@@ -886,7 +886,7 @@
         <v>-272850.4584</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-237102.9172000001</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-337920.3492000001</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-465806.4232</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-153525.6912</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>136940.7178</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-107337.5232</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>209740.2548</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>88483.59959999999</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>31680.28959999996</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>286575.5166</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-383246.7994</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-418313.3139</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-414131.7671999999</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>36286.36240000004</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>36286.36240000004</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>36286.36240000004</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>290197.0985000001</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>290197.0985000001</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>290197.0985000001</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>288392.0577000001</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>829251.9743000001</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-31310.5793999999</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>588358.0136000002</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>583732.4113000002</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>819483.9843000001</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1105458.2363</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>841114.0943</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>858723.6073</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1141833.1343</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>857310.4033</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>857310.4033</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>857310.4033</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>857310.4033</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>857310.4033</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1255494.7163</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>914024.2193</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>914024.2193</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1214430.5343</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>973072.7392999999</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>973072.7392999999</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1222849.0605</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1222849.0605</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1222849.0605</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1222849.0605</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>923511.9047000003</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>1859024.6827</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1509729.8497</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1781533.2857</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1781533.2857</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>1781533.2857</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3228264.955600875</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>2975776.360600875</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3260617.052600875</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3260617.052600875</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2990663.395600874</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2990663.395600874</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3120805.856600875</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2973861.541600875</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2471722.300823097</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>2745081.721823097</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H583">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H586">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H587">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H589">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H599">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H601">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H602">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H603">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H604">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H605">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H606">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H609">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H610">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H613">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H614">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H615">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H616">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H617">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H618">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H623">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H624">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H625">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>3235528.955423098</v>
       </c>
       <c r="H641">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>2933146.547423098</v>
       </c>
       <c r="H642">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>3244027.280423098</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>3244027.280423098</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>3113832.486423098</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>3363879.180423098</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>3620661.866423097</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>3506609.934423097</v>
       </c>
       <c r="H649">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>3807258.331423097</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>4153839.417923097</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H654">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H655">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H656">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H658">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H659">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H661">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H662">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H663">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H664">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H665">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H666">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H668">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H669">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H671">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H672">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H673">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H674">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H675">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H676">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>3935007.824923098</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>4214541.143700875</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>4214541.143700875</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>4214541.143700875</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>4214541.143700875</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>3854941.013700875</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>3954674.976700875</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>3954674.976700875</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>3712293.939700875</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>3799035.639700876</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>3799035.639700876</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>3578664.856700876</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>4078647.614700876</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>4078647.614700876</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>3772597.280700876</v>
       </c>
       <c r="H693">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>3407964.178700876</v>
       </c>
       <c r="H694">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>3558192.081700876</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>2912752.640700876</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>2643922.464700876</v>
       </c>
       <c r="H697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>2923532.351700876</v>
       </c>
       <c r="H698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>2683412.511700876</v>
       </c>
       <c r="H699">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>2852156.123700876</v>
       </c>
       <c r="H700">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 DAC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 DAC ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-237102.9172000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-77907.50420000008</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-337920.3492000001</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-23396.07820000005</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-465806.4232</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>173204.3058</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-107337.5232</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>19021.7726</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-233057.0934</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>31680.28959999996</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>286575.5166</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>109786.7436</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-383246.7994</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-237507.2786</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-418313.3139</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-414131.7671999999</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-257075.9251999999</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>36286.36240000004</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>36286.36240000004</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>36286.36240000004</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>290197.0985000001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>290197.0985000001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>290197.0985000001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>288392.0577000001</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>288392.0577000001</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>829251.9743000001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>588358.0136000002</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>583732.4113000002</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>819483.9843000001</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>1105458.2363</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>841114.0943</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>858723.6073</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>1141833.1343</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>857310.4033</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>857310.4033</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>857310.4033</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>857310.4033</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>857310.4033</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>1255494.7163</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>914024.2193</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>914024.2193</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>1214430.5343</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>973072.7392999999</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>973072.7392999999</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>1222849.0605</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>1222849.0605</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>1222849.0605</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>1222849.0605</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>923511.9047000003</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>1859024.6827</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>1509729.8497</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>1781533.2857</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>1781533.2857</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>1781533.2857</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2550863.350900875</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>2975776.360600875</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3260617.052600875</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3260617.052600875</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2990663.395600874</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2990663.395600874</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>3120805.856600875</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2856686.972600874</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2973861.541600875</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>2725753.779600875</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>2723890.185200875</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>2726230.524100875</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>2591716.455300875</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>2591716.455300875</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2883867.833300875</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2884801.656800875</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2694368.604700875</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>3018103.306700875</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2812624.253123097</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2564412.161123097</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2564412.161123097</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>2564412.161123097</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>2712837.251123097</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2712837.251123097</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>2712837.251123097</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>2712837.251123097</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>2685629.107823097</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>2471722.300823097</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>2745484.721823097</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>2745081.721823097</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>2958418.002823097</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>2926413.977023097</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>2932313.977023097</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>2926143.977023097</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>3085485.919123097</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>3085485.919123097</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>2800699.880423097</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>3157518.335423097</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>2974461.318423097</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>2974461.318423097</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>3235528.955423098</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>3235528.955423098</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>2933146.547423098</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>3244027.280423098</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>3244027.280423098</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>3113832.486423098</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>3363879.180423098</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>3620661.866423097</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>3620661.866423097</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>3506609.934423097</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>3925743.237423097</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>3807258.331423097</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>4153839.417923097</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>3933001.911923097</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>4214541.143700875</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>3854941.013700875</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>3954674.976700875</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>3799035.639700876</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
